--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_004.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_004.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295001AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
-  </si>
-  <si>
-    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(295025EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295038EK2.10) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
-  </si>
-  <si>
-    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295026EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295037EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295006AK2.05) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
-  </si>
-  <si>
-    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
-  </si>
-  <si>
-    <t>(295018AA1.08) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Plant operations</t>
-  </si>
-  <si>
-    <t>(295021AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Maximizing reactor water cleanup flow</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295012AK2.01) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell ventilation</t>
-  </si>
-  <si>
-    <t>(295011AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295033EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Systems required to suppress a fire</t>
-  </si>
-  <si>
-    <t>(295022AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Restoring CRDM cooling/drive water flow</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010AA2.01) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Leak rates</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
-  </si>
-  <si>
-    <t>(215003A4.04) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM back panel switches, meters, and indicating lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(264000A3.01) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Starting/loading </t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(211000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump amps</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215004K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(209002K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Standby liquid control system</t>
-  </si>
-  <si>
-    <t>(223002K4.04) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic bypassing of selected isolations during specified plant conditions</t>
-  </si>
-  <si>
-    <t>(259002K2.03) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater controllers</t>
-  </si>
-  <si>
-    <t>(510000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Loss of ultimate heat sink</t>
-  </si>
-  <si>
-    <t>(215005A2.06) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels upscale</t>
-  </si>
-  <si>
-    <t>(218000A4.05) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS timer reset</t>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AA2.07) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(295003AK2.07) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295038EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Control room ventilation system isolation</t>
+  </si>
+  <si>
+    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(700000AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Voltage disturbance</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
+  </si>
+  <si>
+    <t>(295023AK2.07) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295024EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell venting</t>
+  </si>
+  <si>
+    <t>(295018AA1.03) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Affected systems so as to isolate damaged portions</t>
+  </si>
+  <si>
+    <t>(295037EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Shutdown conditions</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295005AK2.08) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
+  </si>
+  <si>
+    <t>(295031EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Condensate system</t>
+  </si>
+  <si>
+    <t>(295025EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure effects on reactor water level</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295002AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Recirculation flow control system runbacks</t>
+  </si>
+  <si>
+    <t>(295020AA1.02) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) Drywell ventilation/cooling system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295012AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.8 to 41.10) Drywell pressure </t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295007AA2.02) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power </t>
+  </si>
+  <si>
+    <t>(295033EK2.01) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Area radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
+  </si>
+  <si>
+    <t>(205000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(400000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Residual heat removal system</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(239002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Indicated vs. actual steam flow</t>
+  </si>
+  <si>
+    <t>(300000K3.25) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(211000K4.07) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) RWCU isolation</t>
   </si>
   <si>
     <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
   </si>
   <si>
-    <t>(203000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Core cooling methods</t>
-  </si>
-  <si>
-    <t>(217000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (291002K1.04) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Modes of failure</t>
-  </si>
-  <si>
-    <t>(262001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(205000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup</t>
-  </si>
-  <si>
-    <t>(400000K4.03) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Spent fuel pool cooling</t>
-  </si>
-  <si>
-    <t>(239002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Turbine load</t>
-  </si>
-  <si>
-    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+    <t>(215005K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Core flow effects on APRM trip setpoints</t>
+  </si>
+  <si>
+    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
+  </si>
+  <si>
+    <t>(203000A2.17) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Keep fill system failure</t>
+  </si>
+  <si>
+    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(264000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Jacket water components</t>
+  </si>
+  <si>
+    <t>(261000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (291004K1.19) PUMPS (CFR: 41.3) (CENTRIFUGAL) Safety procedure and precautions associated with centrifugal pumps</t>
+  </si>
+  <si>
+    <t>(209002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(217000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(215003K4.08) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS-IRM overlap</t>
+  </si>
+  <si>
+    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(510000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(215004A4.01) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS count rate and period</t>
+  </si>
+  <si>
+    <t>(223002A2.04) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Process radiation monitoring system failures</t>
+  </si>
+  <si>
+    <t>(259002K2.01) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(205000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Abnormal reactor water level</t>
+  </si>
+  <si>
+    <t>(400000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(268000A4.02) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment sump pumps</t>
+  </si>
+  <si>
+    <t>(234000A2.08) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Fuel pool ventilation malfunction</t>
+  </si>
+  <si>
+    <t>(201001K2.02) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SCRAM valve solenoids</t>
+  </si>
+  <si>
+    <t>(216000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.7 / 45.7) Loss of a recirculation pump</t>
+  </si>
+  <si>
+    <t>(230000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (291001K1.12) VALVES (CFR: 41.3) Reason for using a globe valve versus a gate valve for throttling</t>
+  </si>
+  <si>
+    <t>(202001A1.19) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) VFD temperature</t>
+  </si>
+  <si>
+    <t>(201005K3.05) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Control rod drive mechanism system</t>
+  </si>
+  <si>
+    <t>(288000K4.03) Knowledge of (SF9 PVS) PLANT VENTILATION SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic starting and stopping of fans</t>
+  </si>
+  <si>
+    <t>(510001A3.02) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
+  </si>
+  <si>
+    <t>(290001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Vacuum breaker operation (BWR 4)</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
+  </si>
+  <si>
+    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
+  </si>
+  <si>
+    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(700000AA2.01) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operating point on the generator capability curve</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(295022AA2.05) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
   </si>
   <si>
-    <t>(215003A4.06) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Detector drives</t>
-  </si>
-  <si>
-    <t>(201001K3.02) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Reactor water level</t>
-  </si>
-  <si>
-    <t>(223001K4.09) Knowledge of (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES design features and/or interlocks that provide for the following: (CFR: 41.7) Containment integrity</t>
-  </si>
-  <si>
-    <t>(204000K2.02) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(271000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.7) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(215001A2.01) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low reactor water level (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(239001A4.01) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) MSIVs</t>
-  </si>
-  <si>
-    <t>(272000A3.01) Ability to monitor automatic operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.7 / 45.7) Main steam radiation alarms</t>
-  </si>
-  <si>
-    <t>(245000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.5 / 45.3) Generator cooling</t>
-  </si>
-  <si>
-    <t>(226001A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.5 / 45.5) Heat exchanger cooling flow</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(202001K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF4 RS) RECIRCULATION SYSTEM and the following systems: (CFR: 41.2 to 41.8 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292008K1.19) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain transient and steady-state effects of a control rod withdrawal on reactor power and void fraction content</t>
-  </si>
-  <si>
-    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t>(293006K1.03) FLUID STATICS AND DYNAMICS (CFR: 41.14) Define head loss</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295024EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(212000A2.09) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High containment/drywell pressure</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000A2.12) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High fuel pool ventilation radiation</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(268000A2.01) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) System rupture </t>
-  </si>
-  <si>
-    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(290002A2.01) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA </t>
-  </si>
-  <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(219000A2.05) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical failures</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(226001A2.14) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
+  </si>
+  <si>
+    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>A1</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295016</t>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295020</t>
   </si>
   <si>
     <t>295012</t>
   </si>
   <si>
-    <t>295011</t>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
     <t>295022</t>
   </si>
   <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>272000</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>219000</t>
   </si>
   <si>
     <t>245000</t>
   </si>
   <si>
     <t>226001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>290002</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1701,7 +1701,7 @@
         <v>4.2</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1990,7 +1990,7 @@
         <v>3.1</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
